--- a/000.커리큐럼/주단위상세일정엑셀/포트폴리오진행체크_FED221.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/포트폴리오진행체크_FED221.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\TOMCO2\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,32 @@
   <si>
     <t>포트폴리오 진행상황 체크 : FED221</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filippobello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빽다방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달콤커피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의 요리 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>○</t>
   </si>
 </sst>
 </file>
@@ -422,31 +448,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +759,7 @@
   <dimension ref="B2:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -750,56 +776,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="17" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="19" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="18" t="s">
@@ -807,21 +833,21 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -836,7 +862,9 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -854,7 +882,9 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -872,7 +902,9 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -890,7 +922,9 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -908,7 +942,9 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -924,7 +960,9 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -937,10 +975,16 @@
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -953,10 +997,16 @@
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -969,10 +1019,14 @@
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -994,7 +1048,9 @@
       <c r="F16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1010,7 +1066,9 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1028,7 +1086,9 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -1048,6 +1108,11 @@
     <mergeCell ref="B4:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G18">
+      <formula1>"○,×"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1"/>
     <hyperlink ref="D9" r:id="rId2"/>
@@ -1058,8 +1123,12 @@
     <hyperlink ref="E16" r:id="rId7" location="section-1"/>
     <hyperlink ref="F16" r:id="rId8"/>
     <hyperlink ref="D18" r:id="rId9" location="01"/>
+    <hyperlink ref="D13" r:id="rId10"/>
+    <hyperlink ref="E13" r:id="rId11"/>
+    <hyperlink ref="D14" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>